--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -107,79 +107,79 @@
     <t>O município possui matrícula de alunos de rede pública escolar de forma digital e online?</t>
   </si>
   <si>
+    <t>https://educacao.teresopolis.rj.gov.br/</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>O município possui plano ou estratégia de transformação digital publicado?</t>
+  </si>
+  <si>
+    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=2SYenAtmzWlflZz</t>
+  </si>
+  <si>
+    <t>O município possui comitê, órgão ou setor responsável pela transformação digital publicado?</t>
+  </si>
+  <si>
+    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=kScvHt85AkHGmQG</t>
+  </si>
+  <si>
+    <t>O município possui algum marco normativo sobre transformação digital?</t>
+  </si>
+  <si>
+    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=pnzkZrDetdbFOYT</t>
+  </si>
+  <si>
+    <t>O município possui processo eletrônico implantado em sua totalidade?</t>
+  </si>
+  <si>
+    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=eZ7iSkiEtcsZVWa</t>
+  </si>
+  <si>
+    <t>O município possui pesquisa pública de processos eletrônicos de forma digital e online?</t>
+  </si>
+  <si>
+    <t>https://encurtador.com.br/HNwpR</t>
+  </si>
+  <si>
+    <t>O município possui transparência ativa nos processos/documentos eletrônicos públicos?</t>
+  </si>
+  <si>
+    <t>https://contabilidadeteresopolis.oppcloud.com.br/transparencia/</t>
+  </si>
+  <si>
+    <t>O município dispõe de orçamento destacado para ações de transformação digital?</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1y-2TQeTxOElrZWgF5znNbKc3QDuuIFiN/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>O município possui normativo para simplificação de processos e desburocratização?</t>
+  </si>
+  <si>
+    <t>O município fez adesão ao Programa de Municípios do Governo Federal (Rede GOV.BR) até o último dia de Junho do ano corrente?</t>
+  </si>
+  <si>
+    <t>https://plataforma.rede.gov.br/adesoes#RJ</t>
+  </si>
+  <si>
+    <t>O município disponibiliza dados no Portal de Dados Abertos do Estado do Rio de Janeiro ou em um Portal de Dados Abertos próprio?</t>
+  </si>
+  <si>
+    <t>https://dados.teresopolis.rj.gov.br/</t>
+  </si>
+  <si>
+    <t>O município possui programa de disponibilização de internet em locais públicos?</t>
+  </si>
+  <si>
+    <t>https://www.teresopolis.rj.gov.br/wifilivre/</t>
+  </si>
+  <si>
+    <t>O município possui rede local com autenticação única para os servidores municipais?</t>
+  </si>
+  <si>
     <t>Não</t>
-  </si>
-  <si>
-    <t>https://educacao.teresopolis.rj.gov.br/</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>O município possui plano ou estratégia de transformação digital publicado?</t>
-  </si>
-  <si>
-    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=2SYenAtmzWlflZz</t>
-  </si>
-  <si>
-    <t>O município possui comitê, órgão ou setor responsável pela transformação digital publicado?</t>
-  </si>
-  <si>
-    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=kScvHt85AkHGmQG</t>
-  </si>
-  <si>
-    <t>O município possui algum marco normativo sobre transformação digital?</t>
-  </si>
-  <si>
-    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=pnzkZrDetdbFOYT</t>
-  </si>
-  <si>
-    <t>O município possui processo eletrônico implantado em sua totalidade?</t>
-  </si>
-  <si>
-    <t>https://atos.teresopolis.rj.gov.br/paginas/visualizar-html?formato=consolida&amp;hash=eZ7iSkiEtcsZVWa</t>
-  </si>
-  <si>
-    <t>O município possui pesquisa pública de processos eletrônicos de forma digital e online?</t>
-  </si>
-  <si>
-    <t>https://encurtador.com.br/HNwpR</t>
-  </si>
-  <si>
-    <t>O município possui transparência ativa nos processos/documentos eletrônicos públicos?</t>
-  </si>
-  <si>
-    <t>https://contabilidadeteresopolis.oppcloud.com.br/transparencia/</t>
-  </si>
-  <si>
-    <t>O município dispõe de orçamento destacado para ações de transformação digital?</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1y-2TQeTxOElrZWgF5znNbKc3QDuuIFiN/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>O município possui normativo para simplificação de processos e desburocratização?</t>
-  </si>
-  <si>
-    <t>O município fez adesão ao Programa de Municípios do Governo Federal (Rede GOV.BR) até o último dia de Junho do ano corrente?</t>
-  </si>
-  <si>
-    <t>https://plataforma.rede.gov.br/adesoes#RJ</t>
-  </si>
-  <si>
-    <t>O município disponibiliza dados no Portal de Dados Abertos do Estado do Rio de Janeiro ou em um Portal de Dados Abertos próprio?</t>
-  </si>
-  <si>
-    <t>https://dados.teresopolis.rj.gov.br/</t>
-  </si>
-  <si>
-    <t>O município possui programa de disponibilização de internet em locais públicos?</t>
-  </si>
-  <si>
-    <t>https://www.teresopolis.rj.gov.br/wifilivre/</t>
-  </si>
-  <si>
-    <t>O município possui rede local com autenticação única para os servidores municipais?</t>
   </si>
   <si>
     <t>Em construção</t>
@@ -1113,11 +1113,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="215547817"/>
-        <c:axId val="2118779341"/>
+        <c:axId val="27621843"/>
+        <c:axId val="696137910"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215547817"/>
+        <c:axId val="27621843"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1169,10 +1169,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118779341"/>
+        <c:crossAx val="696137910"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118779341"/>
+        <c:axId val="696137910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="41.0"/>
@@ -1248,7 +1248,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215547817"/>
+        <c:crossAx val="27621843"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1464,11 +1464,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1416417557"/>
-        <c:axId val="206697594"/>
+        <c:axId val="1658705496"/>
+        <c:axId val="1628794482"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1416417557"/>
+        <c:axId val="1658705496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1520,10 +1520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206697594"/>
+        <c:crossAx val="1628794482"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206697594"/>
+        <c:axId val="1628794482"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -1599,7 +1599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1416417557"/>
+        <c:crossAx val="1658705496"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1815,11 +1815,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1242785659"/>
-        <c:axId val="1653785156"/>
+        <c:axId val="487987902"/>
+        <c:axId val="1894854457"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1242785659"/>
+        <c:axId val="487987902"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1871,10 +1871,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653785156"/>
+        <c:crossAx val="1894854457"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1653785156"/>
+        <c:axId val="1894854457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -1950,7 +1950,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242785659"/>
+        <c:crossAx val="487987902"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2166,11 +2166,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1361135468"/>
-        <c:axId val="1622691840"/>
+        <c:axId val="1843113457"/>
+        <c:axId val="1964770080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1361135468"/>
+        <c:axId val="1843113457"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2222,10 +2222,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1622691840"/>
+        <c:crossAx val="1964770080"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1622691840"/>
+        <c:axId val="1964770080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="17.0"/>
@@ -2301,7 +2301,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1361135468"/>
+        <c:crossAx val="1843113457"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2441,11 +2441,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1720319086"/>
-        <c:axId val="1998997976"/>
+        <c:axId val="44631221"/>
+        <c:axId val="650801097"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1720319086"/>
+        <c:axId val="44631221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,10 +2497,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998997976"/>
+        <c:crossAx val="650801097"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1998997976"/>
+        <c:axId val="650801097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720319086"/>
+        <c:crossAx val="44631221"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3251,23 +3251,23 @@
         <v>24</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>26</v>
       </c>
       <c r="D11" s="33">
         <v>2.0</v>
       </c>
       <c r="E11" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="35"/>
     </row>
     <row r="12">
       <c r="A12" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="37">
         <f t="shared" ref="D12:E12" si="2">SUM(D2:D11)</f>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="E12" s="38">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="39"/>
     </row>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9">
         <v>5.0</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="15">
         <v>5.0</v>
@@ -3392,13 +3392,13 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="9">
         <v>5.0</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="15">
         <v>5.0</v>
@@ -3430,32 +3430,32 @@
     </row>
     <row r="6">
       <c r="A6" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="9">
         <v>5.0</v>
       </c>
       <c r="E6" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="43"/>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="15">
         <v>5.0</v>
@@ -3468,32 +3468,32 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>5.0</v>
       </c>
       <c r="E8" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="43"/>
     </row>
     <row r="9">
       <c r="A9" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="15">
         <v>5.0</v>
@@ -3506,13 +3506,13 @@
     </row>
     <row r="10">
       <c r="A10" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="9">
         <v>5.0</v>
@@ -3525,13 +3525,13 @@
     </row>
     <row r="11">
       <c r="A11" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="52">
         <v>5.0</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="12">
       <c r="A12" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="37">
         <f t="shared" ref="D12:E12" si="2">SUM(D2:D11)</f>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E12" s="37">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F12" s="56"/>
     </row>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="2">
       <c r="A2" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9">
         <v>5.0</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>50</v>
@@ -3708,7 +3708,7 @@
         <v>55</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>56</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="7">
       <c r="A7" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="36"/>
@@ -3825,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C3" s="70" t="s">
         <v>60</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="E3" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="17"/>
     </row>
@@ -3863,7 +3863,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>50</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="6">
       <c r="A6" s="73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="37">
         <f t="shared" ref="D6:E6" si="2">SUM(D2:D5)</f>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="39"/>
     </row>
@@ -3980,15 +3980,15 @@
       </c>
       <c r="C2" s="78">
         <f>'Dimensão 1'!E12</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="79">
         <f t="shared" ref="D2:D5" si="1">((C2*100)/B2)/100</f>
-        <v>0.9512195122</v>
+        <v>1</v>
       </c>
       <c r="E2" s="80">
         <f t="shared" ref="E2:E5" si="2"> 100% - D2</f>
-        <v>0.0487804878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4001,15 +4001,15 @@
       </c>
       <c r="C3" s="82">
         <f>'Dimensão 2'!E12</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" s="83">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E3" s="84">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4043,15 +4043,15 @@
       </c>
       <c r="C5" s="86">
         <f>'Dimensão 4'!E6</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="87">
         <f t="shared" si="1"/>
-        <v>0.5882352941</v>
+        <v>0.8823529412</v>
       </c>
       <c r="E5" s="88">
         <f t="shared" si="2"/>
-        <v>0.4117647059</v>
+        <v>0.1176470588</v>
       </c>
     </row>
   </sheetData>
